--- a/va_facility_data_2025-02-20/Bemidji VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Bemidji%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Bemidji VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Bemidji%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R51b0f456ea5f4bf982871f07f045eeb1"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rcfec610dd340438ba04d82aa7e1da95e"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5a73b6c9189f4372aa49fc877e7d86ec"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rccb2797c8270472ebd9fba81000115a2"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb69abe0d1ba64ee48770567d1fac209b"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1563a16cc94944fab0be4730df18b9e3"/>
   </x:sheets>
 </x:workbook>
 </file>
